--- a/biology/Botanique/Chou_cavalier/Chou_cavalier.xlsx
+++ b/biology/Botanique/Chou_cavalier/Chou_cavalier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brassica oleracea var. viridis
 Les choux cavaliers (Brassica oleracea var. viridis L.) font partie du groupe "Acephala"L. dans lequel plusieurs types de choux sont présents. Ils sont dénommés en français : choux verts, choux cavaliers ou choux à vaches.
-Le chou cavalier se distingue par sa tige très élevée et ses feuilles lisses qui se récoltent une à une au fur et à mesure des besoins. Certains ont un feuillage plus ou moins rouge. Le chou « Géant de Jersey » mesure plus de 1 m et sa tige devient dure[1].
-Plusieurs choux en sont proches : le chou rosette (ou collard au Québec et aux USA) est plus court, le chou galicien ("couve galega" en portugais) est hétérogène avec des feuilles lisses ou frisées ou cloquées, ce chou est le plus utilisé dans la cuisine portugaise notamment dans la soupe caldo verde[1]. Le chou « à feuilles de chêne » a des feuilles lobbées
+Le chou cavalier se distingue par sa tige très élevée et ses feuilles lisses qui se récoltent une à une au fur et à mesure des besoins. Certains ont un feuillage plus ou moins rouge. Le chou « Géant de Jersey » mesure plus de 1 m et sa tige devient dure.
+Plusieurs choux en sont proches : le chou rosette (ou collard au Québec et aux USA) est plus court, le chou galicien ("couve galega" en portugais) est hétérogène avec des feuilles lisses ou frisées ou cloquées, ce chou est le plus utilisé dans la cuisine portugaise notamment dans la soupe caldo verde. Le chou « à feuilles de chêne » a des feuilles lobbées
 Le chou cavalier peut aussi être appelé  caulet, chou en arbre, chou fourrager, chou vert, kale aux États-Unis et garbure (comme le nom de la soupe qui en contient dans le sud-ouest de la France)...
 </t>
         </is>
